--- a/每日记录.xlsx
+++ b/每日记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\javaseDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E3031-858A-4B51-A215-5FA295F6C843}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1100B33-0A84-44E3-9B6E-9ABA9BA14DD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="1545" windowWidth="18000" windowHeight="9375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,22 @@
   </si>
   <si>
     <t>4.java8特性的学习（lambda表达式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.面试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.面试整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.java8特性的学习（lambda表达式之方法引用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.java8新特性的学习(引入流）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,19 +107,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -386,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,16 +436,16 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>43815</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -422,7 +457,7 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
@@ -432,7 +467,7 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -442,7 +477,7 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -452,61 +487,116 @@
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="6">
+        <v>43816</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="A11" s="10">
+        <v>43817</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
